--- a/data/duantie.xlsx
+++ b/data/duantie.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11A6C4D-26DF-4B5E-8FCD-E988C93486C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="473">
   <si>
     <t>[1] 制作委托：出口用的手斧</t>
   </si>
@@ -1435,12 +1436,15 @@
   </si>
   <si>
     <t>球粒陨石手钳</t>
+  </si>
+  <si>
+    <t>旧萨雷安</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1474,7 +1478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1482,12 +1486,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1529,7 +1536,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1562,9 +1569,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1597,6 +1621,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1772,7 +1813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2813,7 +2854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3088,7 +3129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3361,7 +3402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3634,7 +3675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3907,19 +3948,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>433</v>
       </c>
+      <c r="B1" t="s">
+        <v>472</v>
+      </c>
       <c r="C1" t="s">
         <v>434</v>
       </c>
@@ -3934,6 +3984,9 @@
       <c r="A2" t="s">
         <v>437</v>
       </c>
+      <c r="B2" t="s">
+        <v>472</v>
+      </c>
       <c r="C2" t="s">
         <v>438</v>
       </c>
@@ -3948,6 +4001,9 @@
       <c r="A3" t="s">
         <v>440</v>
       </c>
+      <c r="B3" t="s">
+        <v>472</v>
+      </c>
       <c r="C3" t="s">
         <v>441</v>
       </c>
@@ -3962,6 +4018,9 @@
       <c r="A4" t="s">
         <v>444</v>
       </c>
+      <c r="B4" t="s">
+        <v>472</v>
+      </c>
       <c r="C4" t="s">
         <v>445</v>
       </c>
@@ -3976,6 +4035,9 @@
       <c r="A5" t="s">
         <v>448</v>
       </c>
+      <c r="B5" t="s">
+        <v>472</v>
+      </c>
       <c r="C5" t="s">
         <v>449</v>
       </c>
@@ -3990,6 +4052,9 @@
       <c r="A6" t="s">
         <v>452</v>
       </c>
+      <c r="B6" t="s">
+        <v>472</v>
+      </c>
       <c r="C6" t="s">
         <v>453</v>
       </c>
@@ -4004,6 +4069,9 @@
       <c r="A7" t="s">
         <v>456</v>
       </c>
+      <c r="B7" t="s">
+        <v>472</v>
+      </c>
       <c r="C7" t="s">
         <v>457</v>
       </c>
@@ -4018,6 +4086,9 @@
       <c r="A8" t="s">
         <v>460</v>
       </c>
+      <c r="B8" t="s">
+        <v>472</v>
+      </c>
       <c r="C8" t="s">
         <v>461</v>
       </c>
@@ -4032,6 +4103,9 @@
       <c r="A9" t="s">
         <v>464</v>
       </c>
+      <c r="B9" t="s">
+        <v>472</v>
+      </c>
       <c r="C9" t="s">
         <v>465</v>
       </c>
@@ -4045,6 +4119,9 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>468</v>
+      </c>
+      <c r="B10" t="s">
+        <v>472</v>
       </c>
       <c r="C10" t="s">
         <v>469</v>
